--- a/results/longCOVID_individual.xlsx
+++ b/results/longCOVID_individual.xlsx
@@ -38,16 +38,16 @@
     <t xml:space="preserve">Cohort</t>
   </si>
   <si>
-    <t xml:space="preserve">hospital</t>
+    <t xml:space="preserve">hospitalization</t>
   </si>
   <si>
     <t xml:space="preserve">CLSA</t>
   </si>
   <si>
+    <t xml:space="preserve">age_range70-80</t>
+  </si>
+  <si>
     <t xml:space="preserve">age_range&lt;60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_range70-80</t>
   </si>
   <si>
     <t xml:space="preserve">age_range&gt;80</t>
@@ -458,7 +458,7 @@
         <v>17.420626405513</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0433346068054498</v>
+        <v>0.0433346068054499</v>
       </c>
       <c r="F2" t="n">
         <v>33</v>
@@ -475,16 +475,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.478810405301536</v>
+        <v>0.439350236916335</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18465255091491</v>
+        <v>0.140387580593622</v>
       </c>
       <c r="D3" t="n">
-        <v>1.24157182280502</v>
+        <v>1.374969422952</v>
       </c>
       <c r="E3" t="n">
-        <v>0.129804023031015</v>
+        <v>0.157678556238141</v>
       </c>
       <c r="F3" t="n">
         <v>33</v>
@@ -501,16 +501,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>0.439350236916334</v>
+        <v>0.478810405301537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.140387580593622</v>
+        <v>0.18465255091491</v>
       </c>
       <c r="D4" t="n">
-        <v>1.37496942295199</v>
+        <v>1.24157182280502</v>
       </c>
       <c r="E4" t="n">
-        <v>0.157678556238141</v>
+        <v>0.129804023031016</v>
       </c>
       <c r="F4" t="n">
         <v>33</v>
@@ -527,16 +527,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>0.783398185973942</v>
+        <v>0.783398185973943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.231794370820672</v>
+        <v>0.231794370820673</v>
       </c>
       <c r="D5" t="n">
         <v>2.64766014642375</v>
       </c>
       <c r="E5" t="n">
-        <v>0.694402368920044</v>
+        <v>0.694402368920046</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
@@ -556,13 +556,13 @@
         <v>1.26740410513355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.581420196790513</v>
+        <v>0.581420196790514</v>
       </c>
       <c r="D6" t="n">
         <v>2.76274056968841</v>
       </c>
       <c r="E6" t="n">
-        <v>0.551158229661224</v>
+        <v>0.551158229661221</v>
       </c>
       <c r="F6" t="n">
         <v>33</v>
@@ -588,7 +588,7 @@
         <v>1.3432498583278</v>
       </c>
       <c r="E7" t="n">
-        <v>0.193782722947771</v>
+        <v>0.19378272294777</v>
       </c>
       <c r="F7" t="n">
         <v>33</v>
@@ -608,13 +608,13 @@
         <v>1.1642070494308</v>
       </c>
       <c r="C8" t="n">
-        <v>0.558564819425332</v>
+        <v>0.558564819425333</v>
       </c>
       <c r="D8" t="n">
         <v>2.42653673630721</v>
       </c>
       <c r="E8" t="n">
-        <v>0.684925832115303</v>
+        <v>0.684925832115297</v>
       </c>
       <c r="F8" t="n">
         <v>33</v>
@@ -637,10 +637,10 @@
         <v>1.09648720774942</v>
       </c>
       <c r="D9" t="n">
-        <v>4.94426278994691</v>
+        <v>4.94426278994692</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0278281577573236</v>
+        <v>0.0278281577573234</v>
       </c>
       <c r="F9" t="n">
         <v>33</v>
@@ -657,7 +657,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>0.681926788783104</v>
+        <v>0.681926788783105</v>
       </c>
       <c r="C10" t="n">
         <v>0.213967188397498</v>
@@ -715,10 +715,10 @@
         <v>0.475117541493691</v>
       </c>
       <c r="D12" t="n">
-        <v>2.75449586962083</v>
+        <v>2.75449586962082</v>
       </c>
       <c r="E12" t="n">
-        <v>0.764141050849246</v>
+        <v>0.764141050849247</v>
       </c>
       <c r="F12" t="n">
         <v>33</v>
@@ -741,7 +741,7 @@
         <v>1.14249920390075</v>
       </c>
       <c r="D13" t="n">
-        <v>6.83966338045149</v>
+        <v>6.83966338045148</v>
       </c>
       <c r="E13" t="n">
         <v>0.0243363606128086</v>
@@ -767,10 +767,10 @@
         <v>0.366589440536468</v>
       </c>
       <c r="D14" t="n">
-        <v>2.83933283338228</v>
+        <v>2.83933283338227</v>
       </c>
       <c r="E14" t="n">
-        <v>0.969407289211042</v>
+        <v>0.969407289211043</v>
       </c>
       <c r="F14" t="n">
         <v>33</v>
@@ -813,22 +813,22 @@
         <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>1.60862002811913</v>
+        <v>3.18791890540914</v>
       </c>
       <c r="C16" t="n">
-        <v>1.23735943097653</v>
+        <v>2.26834454651737</v>
       </c>
       <c r="D16" t="n">
-        <v>2.09127463700973</v>
+        <v>4.48028363374876</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000384052839726631</v>
+        <v>0.0000000000243801549801511</v>
       </c>
       <c r="F16" t="n">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G16" t="n">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="H16" t="s">
         <v>23</v>
@@ -836,25 +836,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="n">
-        <v>1.31801400197292</v>
+        <v>1.24211431209197</v>
       </c>
       <c r="C17" t="n">
-        <v>0.826115780610125</v>
+        <v>0.714252993543374</v>
       </c>
       <c r="D17" t="n">
-        <v>2.10280562382393</v>
+        <v>2.16008610149425</v>
       </c>
       <c r="E17" t="n">
-        <v>0.246653047729866</v>
+        <v>0.44249810119514</v>
       </c>
       <c r="F17" t="n">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G17" t="n">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="H17" t="s">
         <v>23</v>
@@ -862,25 +862,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="n">
-        <v>1.06713957588869</v>
+        <v>0.925366476265533</v>
       </c>
       <c r="C18" t="n">
-        <v>0.770054693116645</v>
+        <v>0.652194951731014</v>
       </c>
       <c r="D18" t="n">
-        <v>1.47883895080085</v>
+        <v>1.31295575521299</v>
       </c>
       <c r="E18" t="n">
-        <v>0.696277090979921</v>
+        <v>0.663889661521532</v>
       </c>
       <c r="F18" t="n">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G18" t="n">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="H18" t="s">
         <v>23</v>
@@ -891,22 +891,22 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>0.839343769994045</v>
+        <v>0.77363404363935</v>
       </c>
       <c r="C19" t="n">
-        <v>0.45941360057072</v>
+        <v>0.32197210599176</v>
       </c>
       <c r="D19" t="n">
-        <v>1.53347215527062</v>
+        <v>1.85888660023576</v>
       </c>
       <c r="E19" t="n">
-        <v>0.568974237417667</v>
+        <v>0.566084194545614</v>
       </c>
       <c r="F19" t="n">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G19" t="n">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="H19" t="s">
         <v>23</v>
@@ -917,22 +917,22 @@
         <v>13</v>
       </c>
       <c r="B20" t="n">
-        <v>1.4839074387478</v>
+        <v>1.74431018984921</v>
       </c>
       <c r="C20" t="n">
-        <v>1.17633574055217</v>
+        <v>1.36940555704471</v>
       </c>
       <c r="D20" t="n">
-        <v>1.87189865177219</v>
+        <v>2.22185314113813</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000867356733834513</v>
+        <v>0.00000659696852994511</v>
       </c>
       <c r="F20" t="n">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G20" t="n">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="H20" t="s">
         <v>23</v>
@@ -943,22 +943,22 @@
         <v>14</v>
       </c>
       <c r="B21" t="n">
-        <v>1.33880038317436</v>
+        <v>1.10180933090347</v>
       </c>
       <c r="C21" t="n">
-        <v>1.03273480484653</v>
+        <v>0.843010548881212</v>
       </c>
       <c r="D21" t="n">
-        <v>1.73557282816103</v>
+        <v>1.44005766390121</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0275817170055709</v>
+        <v>0.477848267246683</v>
       </c>
       <c r="F21" t="n">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G21" t="n">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="H21" t="s">
         <v>23</v>
@@ -969,22 +969,22 @@
         <v>15</v>
       </c>
       <c r="B22" t="n">
-        <v>1.41270777143175</v>
+        <v>1.02738177738298</v>
       </c>
       <c r="C22" t="n">
-        <v>1.08997812559472</v>
+        <v>0.796186869206717</v>
       </c>
       <c r="D22" t="n">
-        <v>1.83099385262867</v>
+        <v>1.32571053018027</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00902583119398782</v>
+        <v>0.835476401399673</v>
       </c>
       <c r="F22" t="n">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G22" t="n">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="H22" t="s">
         <v>23</v>
@@ -995,22 +995,22 @@
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>1.51866088149115</v>
+        <v>1.50471713683219</v>
       </c>
       <c r="C23" t="n">
-        <v>1.06193651675727</v>
+        <v>1.03642939540001</v>
       </c>
       <c r="D23" t="n">
-        <v>2.17181614585972</v>
+        <v>2.1845903560103</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0220672189236768</v>
+        <v>0.0317081544408584</v>
       </c>
       <c r="F23" t="n">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G23" t="n">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="H23" t="s">
         <v>23</v>
@@ -1021,22 +1021,22 @@
         <v>17</v>
       </c>
       <c r="B24" t="n">
-        <v>0.853086866483547</v>
+        <v>1.47846656771039</v>
       </c>
       <c r="C24" t="n">
-        <v>0.471852484397589</v>
+        <v>0.678989408113045</v>
       </c>
       <c r="D24" t="n">
-        <v>1.54234051071245</v>
+        <v>3.21928938171802</v>
       </c>
       <c r="E24" t="n">
-        <v>0.59896826717111</v>
+        <v>0.324703786865939</v>
       </c>
       <c r="F24" t="n">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G24" t="n">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="H24" t="s">
         <v>23</v>
@@ -1047,22 +1047,22 @@
         <v>18</v>
       </c>
       <c r="B25" t="n">
-        <v>1.0964931312594</v>
+        <v>1.08430542354828</v>
       </c>
       <c r="C25" t="n">
-        <v>0.799130503696853</v>
+        <v>0.760215436237939</v>
       </c>
       <c r="D25" t="n">
-        <v>1.50450668737722</v>
+        <v>1.54655929818325</v>
       </c>
       <c r="E25" t="n">
-        <v>0.568189676383412</v>
+        <v>0.655053695461215</v>
       </c>
       <c r="F25" t="n">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G25" t="n">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="H25" t="s">
         <v>23</v>
@@ -1073,22 +1073,22 @@
         <v>19</v>
       </c>
       <c r="B26" t="n">
-        <v>0.742976979020176</v>
+        <v>0.820576538404561</v>
       </c>
       <c r="C26" t="n">
-        <v>0.511461656977541</v>
+        <v>0.526862056362395</v>
       </c>
       <c r="D26" t="n">
-        <v>1.07928870878817</v>
+        <v>1.27803064815292</v>
       </c>
       <c r="E26" t="n">
-        <v>0.118890360746604</v>
+        <v>0.381703772049114</v>
       </c>
       <c r="F26" t="n">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G26" t="n">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="H26" t="s">
         <v>23</v>
@@ -1099,22 +1099,22 @@
         <v>20</v>
       </c>
       <c r="B27" t="n">
-        <v>0.977582443147134</v>
+        <v>0.976078910817902</v>
       </c>
       <c r="C27" t="n">
-        <v>0.632656743476669</v>
+        <v>0.62334711264696</v>
       </c>
       <c r="D27" t="n">
-        <v>1.51056231203321</v>
+        <v>1.5284101278625</v>
       </c>
       <c r="E27" t="n">
-        <v>0.918662179585693</v>
+        <v>0.915724403178998</v>
       </c>
       <c r="F27" t="n">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G27" t="n">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="H27" t="s">
         <v>23</v>
@@ -1125,22 +1125,22 @@
         <v>21</v>
       </c>
       <c r="B28" t="n">
-        <v>1.2976881465452</v>
+        <v>1.10407508383372</v>
       </c>
       <c r="C28" t="n">
-        <v>0.820453542411398</v>
+        <v>0.663974085993585</v>
       </c>
       <c r="D28" t="n">
-        <v>2.05251661262196</v>
+        <v>1.83588759931545</v>
       </c>
       <c r="E28" t="n">
-        <v>0.265291727043188</v>
+        <v>0.7027569855868</v>
       </c>
       <c r="F28" t="n">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G28" t="n">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="H28" t="s">
         <v>23</v>
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="B29" t="n">
-        <v>0.595017988985186</v>
+        <v>0.404997810237942</v>
       </c>
       <c r="C29" t="n">
-        <v>0.240259788516081</v>
+        <v>0.117232432447789</v>
       </c>
       <c r="D29" t="n">
-        <v>1.47359826379053</v>
+        <v>1.39912840561914</v>
       </c>
       <c r="E29" t="n">
-        <v>0.261846994073126</v>
+        <v>0.15300529113294</v>
       </c>
       <c r="F29" t="n">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G29" t="n">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="H29" t="s">
         <v>23</v>
@@ -1174,25 +1174,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" t="n">
-        <v>1.29372680670204</v>
+        <v>1.35180310154594</v>
       </c>
       <c r="C30" t="n">
-        <v>0.937494547286733</v>
+        <v>1.03918492085575</v>
       </c>
       <c r="D30" t="n">
-        <v>1.78532137090664</v>
+        <v>1.75846626396812</v>
       </c>
       <c r="E30" t="n">
-        <v>0.117072691810112</v>
+        <v>0.0246781385589016</v>
       </c>
       <c r="F30" t="n">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="G30" t="n">
-        <v>17332</v>
+        <v>18951</v>
       </c>
       <c r="H30" t="s">
         <v>24</v>
@@ -1200,25 +1200,25 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="n">
-        <v>0.44558832839747</v>
+        <v>0.513526550087032</v>
       </c>
       <c r="C31" t="n">
-        <v>0.291291854731181</v>
+        <v>0.369387685796713</v>
       </c>
       <c r="D31" t="n">
-        <v>0.681615208867693</v>
+        <v>0.713909877844215</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0001935539150506</v>
+        <v>0.0000734558630669957</v>
       </c>
       <c r="F31" t="n">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="G31" t="n">
-        <v>17332</v>
+        <v>18951</v>
       </c>
       <c r="H31" t="s">
         <v>24</v>
@@ -1229,22 +1229,22 @@
         <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>0.370851795556375</v>
+        <v>0.351191922639011</v>
       </c>
       <c r="C32" t="n">
-        <v>0.132545959399442</v>
+        <v>0.151641609142869</v>
       </c>
       <c r="D32" t="n">
-        <v>1.03761031185358</v>
+        <v>0.813337231278549</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0588071629306405</v>
+        <v>0.0146000293588982</v>
       </c>
       <c r="F32" t="n">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="G32" t="n">
-        <v>17332</v>
+        <v>18951</v>
       </c>
       <c r="H32" t="s">
         <v>24</v>
@@ -1255,22 +1255,22 @@
         <v>8</v>
       </c>
       <c r="B33" t="n">
-        <v>1.78240164916074</v>
+        <v>3.06886256641609</v>
       </c>
       <c r="C33" t="n">
-        <v>1.23186597121143</v>
+        <v>2.38008310381873</v>
       </c>
       <c r="D33" t="n">
-        <v>2.57897832489575</v>
+        <v>3.95697000513946</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00216733764815548</v>
+        <v>0.00000000000000000530542358145441</v>
       </c>
       <c r="F33" t="n">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="G33" t="n">
-        <v>17332</v>
+        <v>18951</v>
       </c>
       <c r="H33" t="s">
         <v>24</v>
@@ -1281,22 +1281,22 @@
         <v>13</v>
       </c>
       <c r="B34" t="n">
-        <v>1.23012893846194</v>
+        <v>1.61796470214154</v>
       </c>
       <c r="C34" t="n">
-        <v>0.920619522990141</v>
+        <v>1.27258736178751</v>
       </c>
       <c r="D34" t="n">
-        <v>1.64369445514974</v>
+        <v>2.05707667385517</v>
       </c>
       <c r="E34" t="n">
-        <v>0.161319823804908</v>
+        <v>0.000085811341435733</v>
       </c>
       <c r="F34" t="n">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="G34" t="n">
-        <v>17332</v>
+        <v>18951</v>
       </c>
       <c r="H34" t="s">
         <v>24</v>
@@ -1307,22 +1307,22 @@
         <v>14</v>
       </c>
       <c r="B35" t="n">
-        <v>1.59174138302811</v>
+        <v>1.4592289805499</v>
       </c>
       <c r="C35" t="n">
-        <v>1.17751631089225</v>
+        <v>1.14180301083638</v>
       </c>
       <c r="D35" t="n">
-        <v>2.15168198266774</v>
+        <v>1.86490068555429</v>
       </c>
       <c r="E35" t="n">
-        <v>0.00250691392618077</v>
+        <v>0.00253177563261807</v>
       </c>
       <c r="F35" t="n">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="G35" t="n">
-        <v>17332</v>
+        <v>18951</v>
       </c>
       <c r="H35" t="s">
         <v>24</v>
@@ -1333,22 +1333,22 @@
         <v>15</v>
       </c>
       <c r="B36" t="n">
-        <v>1.1804726437657</v>
+        <v>1.16778292651996</v>
       </c>
       <c r="C36" t="n">
-        <v>0.884903105883534</v>
+        <v>0.925615342970288</v>
       </c>
       <c r="D36" t="n">
-        <v>1.57476638223324</v>
+        <v>1.47330851182239</v>
       </c>
       <c r="E36" t="n">
-        <v>0.259163696952938</v>
+        <v>0.190843638660861</v>
       </c>
       <c r="F36" t="n">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="G36" t="n">
-        <v>17332</v>
+        <v>18951</v>
       </c>
       <c r="H36" t="s">
         <v>24</v>
@@ -1359,22 +1359,22 @@
         <v>18</v>
       </c>
       <c r="B37" t="n">
-        <v>1.40080858843705</v>
+        <v>1.36913021263856</v>
       </c>
       <c r="C37" t="n">
-        <v>1.01300737421213</v>
+        <v>1.05363596027207</v>
       </c>
       <c r="D37" t="n">
-        <v>1.93706852624361</v>
+        <v>1.77909411774031</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0415387980287483</v>
+        <v>0.0187271253303061</v>
       </c>
       <c r="F37" t="n">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="G37" t="n">
-        <v>17332</v>
+        <v>18951</v>
       </c>
       <c r="H37" t="s">
         <v>24</v>
@@ -1385,22 +1385,22 @@
         <v>19</v>
       </c>
       <c r="B38" t="n">
-        <v>1.17964741927929</v>
+        <v>1.11343338577052</v>
       </c>
       <c r="C38" t="n">
-        <v>0.774369885481994</v>
+        <v>0.793776247054913</v>
       </c>
       <c r="D38" t="n">
-        <v>1.79703273577862</v>
+        <v>1.56181784117135</v>
       </c>
       <c r="E38" t="n">
-        <v>0.441712532266114</v>
+        <v>0.533730310107746</v>
       </c>
       <c r="F38" t="n">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="G38" t="n">
-        <v>17332</v>
+        <v>18951</v>
       </c>
       <c r="H38" t="s">
         <v>24</v>
@@ -1411,22 +1411,22 @@
         <v>20</v>
       </c>
       <c r="B39" t="n">
-        <v>0.969251778779859</v>
+        <v>1.15957570093886</v>
       </c>
       <c r="C39" t="n">
-        <v>0.545206219904469</v>
+        <v>0.768442098014265</v>
       </c>
       <c r="D39" t="n">
-        <v>1.72310765426068</v>
+        <v>1.74979456446033</v>
       </c>
       <c r="E39" t="n">
-        <v>0.915274592273434</v>
+        <v>0.4806398699585</v>
       </c>
       <c r="F39" t="n">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="G39" t="n">
-        <v>17332</v>
+        <v>18951</v>
       </c>
       <c r="H39" t="s">
         <v>24</v>
@@ -1437,22 +1437,22 @@
         <v>17</v>
       </c>
       <c r="B40" t="n">
-        <v>1.6724387526348</v>
+        <v>1.29599911384343</v>
       </c>
       <c r="C40" t="n">
-        <v>1.01167250595148</v>
+        <v>0.856001843211227</v>
       </c>
       <c r="D40" t="n">
-        <v>2.76477947642159</v>
+        <v>1.96216131589391</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0449403834802568</v>
+        <v>0.220487570971393</v>
       </c>
       <c r="F40" t="n">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="G40" t="n">
-        <v>17332</v>
+        <v>18951</v>
       </c>
       <c r="H40" t="s">
         <v>24</v>
@@ -1463,22 +1463,22 @@
         <v>16</v>
       </c>
       <c r="B41" t="n">
-        <v>1.40568855695282</v>
+        <v>1.36926500966281</v>
       </c>
       <c r="C41" t="n">
-        <v>1.00300242759263</v>
+        <v>1.04441513807663</v>
       </c>
       <c r="D41" t="n">
-        <v>1.97004540047897</v>
+        <v>1.79515462609976</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0479995571713652</v>
+        <v>0.0229375954672962</v>
       </c>
       <c r="F41" t="n">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="G41" t="n">
-        <v>17332</v>
+        <v>18951</v>
       </c>
       <c r="H41" t="s">
         <v>24</v>
@@ -1489,22 +1489,22 @@
         <v>21</v>
       </c>
       <c r="B42" t="n">
-        <v>1.13074762860041</v>
+        <v>1.19389635715909</v>
       </c>
       <c r="C42" t="n">
-        <v>0.769305221780124</v>
+        <v>0.883189625633166</v>
       </c>
       <c r="D42" t="n">
-        <v>1.66200639666384</v>
+        <v>1.61390993538435</v>
       </c>
       <c r="E42" t="n">
-        <v>0.53176333908196</v>
+        <v>0.249194209622597</v>
       </c>
       <c r="F42" t="n">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="G42" t="n">
-        <v>17332</v>
+        <v>18951</v>
       </c>
       <c r="H42" t="s">
         <v>24</v>
@@ -1515,22 +1515,22 @@
         <v>22</v>
       </c>
       <c r="B43" t="n">
-        <v>0.68702921629263</v>
+        <v>0.370585336953248</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213248660997414</v>
+        <v>0.116440060604405</v>
       </c>
       <c r="D43" t="n">
-        <v>2.21342137311423</v>
+        <v>1.17943507802981</v>
       </c>
       <c r="E43" t="n">
-        <v>0.52943305645673</v>
+        <v>0.092847706819861</v>
       </c>
       <c r="F43" t="n">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="G43" t="n">
-        <v>17332</v>
+        <v>18951</v>
       </c>
       <c r="H43" t="s">
         <v>24</v>
